--- a/server/Balances.xlsx
+++ b/server/Balances.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -541,9 +541,32 @@
         <v>reset</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>EMP005</v>
+      </c>
+      <c r="B7" t="str">
+        <v>IC</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2025-10-16T05:16:18.205Z</v>
+      </c>
+      <c r="G7" t="str">
+        <v>reset</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
   </ignoredErrors>
 </worksheet>
 </file>
